--- a/parabolic/2025/07/22/parabolic.xlsx
+++ b/parabolic/2025/07/22/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>155A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>773</v>
+        <v>549</v>
       </c>
       <c r="D2" t="n">
-        <v>190600</v>
+        <v>332300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>186A</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>699</v>
+        <v>777</v>
       </c>
       <c r="D3" t="n">
-        <v>2531700</v>
+        <v>270200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>296A</t>
+          <t>186A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>777</v>
+        <v>689</v>
       </c>
       <c r="D4" t="n">
-        <v>464700</v>
+        <v>3131500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>296A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>331</v>
+        <v>782</v>
       </c>
       <c r="D5" t="n">
-        <v>171300</v>
+        <v>694000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6203</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>995</v>
+        <v>320</v>
       </c>
       <c r="D6" t="n">
-        <v>103700</v>
+        <v>249700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6356</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>567</v>
+        <v>247</v>
       </c>
       <c r="D7" t="n">
-        <v>103000</v>
+        <v>114100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8798</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="D8" t="n">
-        <v>337400</v>
+        <v>101700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9501</t>
+          <t>5952</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>539.7999877929688</v>
+        <v>182</v>
       </c>
       <c r="D9" t="n">
-        <v>37936300</v>
+        <v>467800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9509</t>
+          <t>6203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,131 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>823.7000122070312</v>
+        <v>990</v>
       </c>
       <c r="D10" t="n">
-        <v>4422900</v>
+        <v>139400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>6356</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>567</v>
+      </c>
+      <c r="D11" t="n">
+        <v>169700</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8070</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>794</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8798</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>302</v>
+      </c>
+      <c r="D13" t="n">
+        <v>376800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9501</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>546.7999877929688</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52843300</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9509</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>827</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6486300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/22/parabolic.xlsx
+++ b/parabolic/2025/07/22/parabolic.xlsx
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D2" t="n">
-        <v>332300</v>
+        <v>497700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D3" t="n">
-        <v>270200</v>
+        <v>327300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D4" t="n">
-        <v>3131500</v>
+        <v>3568300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="D5" t="n">
-        <v>694000</v>
+        <v>894900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>320</v>
       </c>
       <c r="D6" t="n">
-        <v>249700</v>
+        <v>272900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D7" t="n">
-        <v>114100</v>
+        <v>217200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D8" t="n">
-        <v>101700</v>
+        <v>282100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D9" t="n">
-        <v>467800</v>
+        <v>2329300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>990</v>
       </c>
       <c r="D10" t="n">
-        <v>139400</v>
+        <v>170400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D11" t="n">
-        <v>169700</v>
+        <v>219800</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D12" t="n">
-        <v>109600</v>
+        <v>125300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D13" t="n">
-        <v>376800</v>
+        <v>469700</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>546.7999877929688</v>
+        <v>548.7000122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>52843300</v>
+        <v>72070500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>827</v>
+        <v>823.2999877929688</v>
       </c>
       <c r="D15" t="n">
-        <v>6486300</v>
+        <v>9076500</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>

--- a/parabolic/2025/07/22/parabolic.xlsx
+++ b/parabolic/2025/07/22/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D2" t="n">
-        <v>497700</v>
+        <v>620900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>772</v>
       </c>
       <c r="D3" t="n">
-        <v>327300</v>
+        <v>397300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D4" t="n">
-        <v>3568300</v>
+        <v>3955100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D5" t="n">
-        <v>894900</v>
+        <v>1051400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D6" t="n">
-        <v>272900</v>
+        <v>325300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D7" t="n">
-        <v>217200</v>
+        <v>348600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" t="n">
-        <v>282100</v>
+        <v>339800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D9" t="n">
-        <v>2329300</v>
+        <v>3361700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D10" t="n">
-        <v>170400</v>
+        <v>188000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="D11" t="n">
-        <v>219800</v>
+        <v>286400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="D12" t="n">
-        <v>125300</v>
+        <v>217500</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>290</v>
       </c>
       <c r="D13" t="n">
-        <v>469700</v>
+        <v>539500</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>548.7000122070312</v>
+        <v>551</v>
       </c>
       <c r="D14" t="n">
-        <v>72070500</v>
+        <v>86525900</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -781,16 +781,39 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>823.2999877929688</v>
+        <v>825.5999755859375</v>
       </c>
       <c r="D15" t="n">
-        <v>9076500</v>
+        <v>10537000</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9511</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>935</v>
+      </c>
+      <c r="D16" t="n">
+        <v>175100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
